--- a/excelsheets/clintrials18Apr.xlsx
+++ b/excelsheets/clintrials18Apr.xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">clintrials18Apr!$A$1:$AO$238</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 

--- a/excelsheets/clintrials18Apr.xlsx
+++ b/excelsheets/clintrials18Apr.xlsx
@@ -7280,8 +7280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO238"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AN8" sqref="AN8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7475,7 +7475,7 @@
         <v>0</v>
       </c>
       <c r="AH2">
-        <f>IF(ISNUMBER(FIND("Open L",$Q2)),1,0)</f>
+        <f>IF(ISNUMBER(FIND("(Open Label)",$Q2)),1,0)</f>
         <v>1</v>
       </c>
       <c r="AI2">
@@ -7578,7 +7578,7 @@
         <v>0</v>
       </c>
       <c r="AH3">
-        <f t="shared" ref="AH3:AH66" si="2">IF(ISNUMBER(FIND("Open L",$Q3)),1,0)</f>
+        <f t="shared" ref="AH3:AH66" si="2">IF(ISNUMBER(FIND("(Open Label)",$Q3)),1,0)</f>
         <v>0</v>
       </c>
       <c r="AI3">
@@ -13416,7 +13416,7 @@
         <v>0</v>
       </c>
       <c r="AH67">
-        <f t="shared" ref="AH67:AH130" si="6">IF(ISNUMBER(FIND("Open L",$Q67)),1,0)</f>
+        <f t="shared" ref="AH67:AH130" si="6">IF(ISNUMBER(FIND("(Open Label)",$Q67)),1,0)</f>
         <v>0</v>
       </c>
       <c r="AI67">
@@ -19173,7 +19173,7 @@
         <v>0</v>
       </c>
       <c r="AH131">
-        <f t="shared" ref="AH131:AH194" si="10">IF(ISNUMBER(FIND("Open L",$Q131)),1,0)</f>
+        <f t="shared" ref="AH131:AH194" si="10">IF(ISNUMBER(FIND("(Open Label)",$Q131)),1,0)</f>
         <v>0</v>
       </c>
       <c r="AI131">
@@ -25047,7 +25047,7 @@
         <v>0</v>
       </c>
       <c r="AH195">
-        <f t="shared" ref="AH195:AH226" si="14">IF(ISNUMBER(FIND("Open L",$Q195)),1,0)</f>
+        <f t="shared" ref="AH195:AH226" si="14">IF(ISNUMBER(FIND("(Open Label)",$Q195)),1,0)</f>
         <v>1</v>
       </c>
       <c r="AI195">
